--- a/survey_results.xlsx
+++ b/survey_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,215 +441,220 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Number of Trees Planted</t>
+          <t>Number of Medical Camps Organized</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Air Quality Improvement (%)</t>
+          <t>Patients Treated</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Water Conservation Efforts (liters)</t>
+          <t>Vaccination Coverage (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Reduction in Carbon Emission (%)</t>
+          <t>Reduction in Disease Incidents (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Wildlife Protection Initiatives</t>
+          <t>Health Awareness Campaigns Conducted</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Green Energy Installations Completed</t>
+          <t>Number of Free Health Check-ups Provided</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Number of Plastic-Free Campaigns</t>
+          <t>Infant Mortality Rate Reduction (%)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Reduction in Industrial Waste (%)</t>
+          <t>Maternal Health Improvements (%)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Increase in Green Spaces (%)</t>
+          <t>Access to Clean Drinking Water Installations</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Public Transport Utilization Increase (%)</t>
+          <t>Number of Mental Health Support Programs</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Households Using Renewable Energy (%)</t>
+          <t>Emergency Medical Services Provided</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Recycling Programs Implemented</t>
+          <t>Number of Hospitals Upgraded</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Reduction in Single-Use Plastic (%)</t>
+          <t>Reduction in Malnutrition Cases (%)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Reduction in Water Pollution (%)</t>
+          <t>Increase in Medical Staff Training Hours</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Increase in Sustainable Farming (%)</t>
+          <t>Surgeries Performed Successfully</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Reduction in Noise Pollution Levels (dB)</t>
+          <t>Increase in Health Insurance Coverage (%)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Protected Land Areas Expanded (sq km)</t>
+          <t>Reduction in Hospital Readmission Rates (%)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Increase in Biodiversity Index (%)</t>
+          <t>Expansion of Telemedicine Services</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Number of Eco-Friendly Infrastructure Projects</t>
+          <t>Percentage Increase in Organ Donations</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Wildlife Population Increase (%)</t>
+          <t>Average Wait Time Reduction for Treatments</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Community Engagements in Green Initiatives</t>
+          <t>Number of Ambulance Services Added</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>Medical Equipment Distributed</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>Number of Training Sessions Conducted</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Number of Participants Completing the Course</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Post-Training Assessment Score</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Improvement in Literacy Rate (%)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Job Placements After Training</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Scholarships Awarded</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Dropout Rate Reduction (%)</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Number of Schools Upgraded</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Students Receiving Learning Materials</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Increase in Digital Literacy (%)</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Teachers Trained in New Teaching Methods</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Average Improvement in Test Scores (%)</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Number of Vocational Training Courses Offered</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Internships Secured Post-Training</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Reduction in Unemployment Rate (%)</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Hours of Online Learning Provided</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Number of Special Education Programs Launched</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Students Enrolled in STEM Programs</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Increase in Higher Education Enrollment (%)</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Number of Mobile Learning Units Deployed</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Books Distributed to Underprivileged Students</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Infrastructure Improvements in Schools</t>
         </is>
@@ -658,69 +663,71 @@
     <row r="2">
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E2" t="n">
         <v>96</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I2" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="K2" t="n">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="L2" t="n">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="M2" t="n">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="N2" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="O2" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P2" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="n">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="R2" t="n">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="S2" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="T2" t="n">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="U2" t="n">
         <v>85</v>
       </c>
       <c r="V2" t="n">
-        <v>65</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
+        <v>85</v>
+      </c>
+      <c r="W2" t="n">
+        <v>26</v>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -742,138 +749,413 @@
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>80</v>
+      </c>
+      <c r="C3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95</v>
+      </c>
+      <c r="F3" t="n">
+        <v>75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>85</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>65</v>
+      </c>
+      <c r="L3" t="n">
+        <v>95</v>
+      </c>
+      <c r="M3" t="n">
+        <v>85</v>
+      </c>
+      <c r="N3" t="n">
+        <v>75</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15</v>
+      </c>
+      <c r="P3" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>65</v>
+      </c>
+      <c r="R3" t="n">
+        <v>85</v>
+      </c>
+      <c r="S3" t="n">
+        <v>25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>35</v>
+      </c>
+      <c r="U3" t="n">
+        <v>15</v>
+      </c>
+      <c r="V3" t="n">
+        <v>75</v>
+      </c>
+      <c r="W3" t="n">
+        <v>25</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>85</v>
+      </c>
+      <c r="D4" t="n">
+        <v>72</v>
+      </c>
+      <c r="E4" t="n">
+        <v>63</v>
+      </c>
+      <c r="F4" t="n">
+        <v>74</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>62</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>89</v>
+      </c>
+      <c r="K4" t="n">
+        <v>78</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>91</v>
+      </c>
+      <c r="N4" t="n">
+        <v>75</v>
+      </c>
+      <c r="O4" t="n">
+        <v>85</v>
+      </c>
+      <c r="P4" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>36</v>
+      </c>
+      <c r="T4" t="n">
+        <v>75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>98</v>
+      </c>
+      <c r="V4" t="n">
+        <v>84</v>
+      </c>
+      <c r="W4" t="n">
+        <v>16</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>85</v>
+      </c>
+      <c r="E5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F5" t="n">
+        <v>69</v>
+      </c>
+      <c r="G5" t="n">
+        <v>75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>64</v>
+      </c>
+      <c r="I5" t="n">
+        <v>52</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>58</v>
+      </c>
+      <c r="L5" t="n">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>45</v>
+      </c>
+      <c r="N5" t="n">
+        <v>25</v>
+      </c>
+      <c r="O5" t="n">
+        <v>73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>76</v>
+      </c>
+      <c r="R5" t="n">
+        <v>23</v>
+      </c>
+      <c r="S5" t="n">
+        <v>95</v>
+      </c>
+      <c r="T5" t="n">
+        <v>14</v>
+      </c>
+      <c r="U5" t="n">
+        <v>25</v>
+      </c>
+      <c r="V5" t="n">
+        <v>35</v>
+      </c>
+      <c r="W5" t="n">
+        <v>35</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>85</t>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>52</t>
         </is>
       </c>
     </row>
